--- a/src/assets/CashFlowDetailsTemplate.xlsx
+++ b/src/assets/CashFlowDetailsTemplate.xlsx
@@ -1,42 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaiKrishna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A47CD80-ACD5-48BA-B686-5FBF8AAFF568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EADFECA-DA3A-443B-9E2F-F98707A1C1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{027F3507-FB80-47E3-BFEE-F489FDE4E6A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Power BI Source" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="14">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Tinubu</t>
+  </si>
+  <si>
+    <t>LAC Pre-Fund</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A'</t>
+  </si>
+  <si>
+    <t>LAC Fund I</t>
+  </si>
+  <si>
+    <t>RAIS</t>
+  </si>
+  <si>
+    <t>B-28</t>
+  </si>
   <si>
     <t>PortCoName</t>
-  </si>
-  <si>
-    <t>ShareClass</t>
   </si>
   <si>
     <t>FundType</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>ShareClass</t>
   </si>
   <si>
     <t>InvestmentCost</t>
@@ -45,26 +77,18 @@
     <t>InvEstimatedValue</t>
   </si>
   <si>
-    <t>B-28</t>
-  </si>
-  <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
-    <t>2023-02-01</t>
-  </si>
-  <si>
-    <t>Agile Frameworks</t>
-  </si>
-  <si>
-    <t>LAC Fund II</t>
+    <t>B50</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +96,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF611A15"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -89,13 +138,90 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,7 +256,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -142,7 +268,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -189,6 +315,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -224,6 +367,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -375,79 +535,1034 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF54341D-7A26-4AD7-B6FB-4E72076ABD74}">
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14">
+        <v>42913</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-200000</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="15">
+        <v>43010</v>
+      </c>
+      <c r="E3" s="8">
+        <v>-54000</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43070</v>
+      </c>
+      <c r="E4" s="6">
+        <v>-7000</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15">
+        <v>43082</v>
+      </c>
+      <c r="E5" s="8">
+        <v>-3000</v>
+      </c>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43098</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-10000</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15">
+        <v>43100</v>
+      </c>
+      <c r="E7" s="8">
+        <v>-210337.25</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="14">
+        <v>43100</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-7234</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15">
+        <v>43102</v>
+      </c>
+      <c r="E9" s="8">
+        <v>-40000</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="14">
+        <v>43104</v>
+      </c>
+      <c r="E10" s="6">
+        <v>-16500</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15">
+        <v>43110</v>
+      </c>
+      <c r="E11" s="8">
+        <v>-15000</v>
+      </c>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="14">
+        <v>43126</v>
+      </c>
+      <c r="E12" s="6">
+        <v>-95000</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="15">
+        <v>43136</v>
+      </c>
+      <c r="E13" s="8">
+        <v>-18000</v>
+      </c>
+      <c r="F13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="14">
+        <v>43174</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="15">
+        <v>43186</v>
+      </c>
+      <c r="E15" s="8">
+        <v>-1000</v>
+      </c>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="14">
+        <v>43192</v>
+      </c>
+      <c r="E16" s="6">
+        <v>-50000</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="15">
+        <v>43193</v>
+      </c>
+      <c r="E17" s="8">
+        <v>-50000</v>
+      </c>
+      <c r="F17" s="9"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="14">
+        <v>43223</v>
+      </c>
+      <c r="E18" s="6">
+        <v>-40000</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="15">
+        <v>43255</v>
+      </c>
+      <c r="E19" s="8">
+        <v>-100000</v>
+      </c>
+      <c r="F19" s="9"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="14">
+        <v>43293</v>
+      </c>
+      <c r="E20" s="6">
+        <v>-192000</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="15">
+        <v>43374</v>
+      </c>
+      <c r="E21" s="8">
+        <v>-61250</v>
+      </c>
+      <c r="F21" s="9"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="14">
+        <v>43536</v>
+      </c>
+      <c r="E22" s="6">
+        <v>-15000</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="15">
+        <v>43608</v>
+      </c>
+      <c r="E23" s="8">
+        <v>-150000</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="14">
+        <v>43727</v>
+      </c>
+      <c r="E24" s="6">
+        <v>-75000</v>
+      </c>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="15">
+        <v>43734</v>
+      </c>
+      <c r="E25" s="8">
+        <v>-200000</v>
+      </c>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="14">
+        <v>43739</v>
+      </c>
+      <c r="E26" s="6">
+        <v>-475000</v>
+      </c>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="15">
+        <v>43739</v>
+      </c>
+      <c r="E27" s="8">
+        <v>-3350</v>
+      </c>
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="14">
+        <v>43830</v>
+      </c>
+      <c r="E28" s="6">
+        <v>-20000</v>
+      </c>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="15">
+        <v>43830</v>
+      </c>
+      <c r="E29" s="8">
+        <v>-54188.25</v>
+      </c>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="14">
+        <v>43830</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="15">
+        <v>43921</v>
+      </c>
+      <c r="E31" s="8">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="14">
+        <v>44012</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="15">
+        <v>44076</v>
+      </c>
+      <c r="E33" s="8">
+        <v>-21000</v>
+      </c>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="14">
+        <v>44104</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="15">
+        <v>44194</v>
+      </c>
+      <c r="E35" s="8">
+        <v>-760700</v>
+      </c>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="14">
+        <v>44196</v>
+      </c>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="15">
+        <v>44286</v>
+      </c>
+      <c r="E37" s="8">
+        <v>-399000</v>
+      </c>
+      <c r="F37" s="9"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="14">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="15">
+        <v>44377</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9">
+        <v>6973478.1516057998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="14">
+        <v>44469</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7">
+        <v>8016394.2547660004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="15">
+        <v>44561</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9">
+        <v>10201531</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="14">
+        <v>44651</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7">
+        <v>10393126.653000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="15">
+        <v>44742</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9">
+        <v>9645568</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="14">
+        <v>43048</v>
+      </c>
+      <c r="E44" s="6">
+        <v>-2518647</v>
+      </c>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="15">
+        <v>43008</v>
+      </c>
+      <c r="E45" s="8">
+        <v>-35958</v>
+      </c>
+      <c r="F45" s="9"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="14">
+        <v>43441</v>
+      </c>
+      <c r="E46" s="6">
+        <v>-90324</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D47" s="15">
+        <v>43875</v>
+      </c>
+      <c r="E47" s="8">
+        <v>-456972</v>
+      </c>
+      <c r="F47" s="9"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>298</v>
+      <c r="B48" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="14">
+        <v>44012</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7">
+        <v>20188207</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="15">
+        <v>44104</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9">
+        <v>15163193</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="14">
+        <v>44196</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7">
+        <v>31848567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="15">
+        <v>44286</v>
+      </c>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9">
+        <v>18333462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="14">
+        <v>44377</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7">
+        <v>18057406</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="15">
+        <v>44469</v>
+      </c>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9">
+        <v>72158263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="14">
+        <v>44561</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7">
+        <v>59167378</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="15">
+        <v>44651</v>
+      </c>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9">
+        <v>26132520</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="14">
+        <v>44742</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7">
+        <v>18332227</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>